--- a/resource/testData/testData.xlsx
+++ b/resource/testData/testData.xlsx
@@ -3,23 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haider Ali Khan\eclipse-workspace\AutomationPractice - Haider Ali\resource\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D156604-1C7C-4397-AF23-57D87B04F137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157BAAD-2234-4FAE-8A56-90988AD211A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{8E77EE0A-D214-4E10-B155-DAA54C3AFC28}"/>
+    <workbookView xWindow="1365" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{17F9AAF8-AD27-47FD-95F3-0A40508E9EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="SummerDress" sheetId="2" r:id="rId2"/>
-    <sheet name="Checkout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,14 +25,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
-  <si>
-    <t>TestCase</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input </t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>TS_HP_DL_02</t>
   </si>
   <si>
     <t>TS_HP_01_01</t>
   </si>
   <si>
+    <t>TS_HP_HPL_01</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>My Store</t>
+  </si>
+  <si>
+    <t>SUMMER DRESS</t>
+  </si>
+  <si>
+    <t>Summer Dress</t>
+  </si>
+  <si>
     <t>TS_HP_02_01</t>
   </si>
   <si>
@@ -44,50 +96,39 @@
     <t>TS_HP_03_01</t>
   </si>
   <si>
-    <t>TS_HP_03_02</t>
-  </si>
-  <si>
-    <t>TS_HP_03_03</t>
-  </si>
-  <si>
-    <t>TS_HP_03_04</t>
-  </si>
-  <si>
-    <t>TS_HP_02_03</t>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>http://automationpractice.com/</t>
-  </si>
-  <si>
-    <t>haider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ali </t>
-  </si>
-  <si>
-    <t>khan</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
+    <t>DRESSES</t>
+  </si>
+  <si>
+    <t>Pass:d1</t>
+  </si>
+  <si>
+    <t>Pass:d2</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass:Hpl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,9 +154,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,303 +469,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44465C73-E308-4356-B243-74F4D8A514D4}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFA70CF-1933-416E-A9F5-A4A7545BE928}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D4D52441-8D85-43CB-B03E-76C5144898CD}"/>
-    <hyperlink ref="B3:B9" r:id="rId2" display="http://automationpractice.com/" xr:uid="{86A6B45C-ACB9-4935-B782-6CC10010C6DA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B02625-836D-44B5-A004-2CEE28C82859}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{46DD4E97-31C8-4E50-B552-1DB7D072DDCC}"/>
-    <hyperlink ref="B3:B9" r:id="rId2" display="http://automationpractice.com/" xr:uid="{0D605F20-379B-4458-A58D-314BE902C6ED}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69E777F-D543-4469-BE4C-C77A0BF3F502}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2C72D9CA-64B1-473F-B2C1-06CC6A2F27E5}"/>
-    <hyperlink ref="B3:B9" r:id="rId2" display="http://automationpractice.com/" xr:uid="{F17A0116-5A34-4B10-8E72-C36D2FBE1A24}"/>
+    <hyperlink ref="B2:B7" r:id="rId1" display="http://automationpractice.com/" xr:uid="{1165F660-8F10-414D-B05A-FBF69EC88938}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{E1DB6336-5D6D-4779-BA4A-7138B02144BF}"/>
+    <hyperlink ref="B5:B6" r:id="rId3" display="http://automationpractice.com/" xr:uid="{A8AEA56A-0DB9-4CF1-9F23-DE2D6A70A3CE}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{E2691630-8F8D-4C46-83D7-E37B3C97AEC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resource/testData/testData.xlsx
+++ b/resource/testData/testData.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haider Ali Khan\eclipse-workspace\AutomationPractice - Haider Ali\resource\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157BAAD-2234-4FAE-8A56-90988AD211A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB93AD08-5F56-4A3A-8684-3B059CB5E0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{17F9AAF8-AD27-47FD-95F3-0A40508E9EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17F9AAF8-AD27-47FD-95F3-0A40508E9EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -63,15 +64,9 @@
     <t>Read</t>
   </si>
   <si>
-    <t>TS_HP_DL_02</t>
-  </si>
-  <si>
     <t>TS_HP_01_01</t>
   </si>
   <si>
-    <t>TS_HP_HPL_01</t>
-  </si>
-  <si>
     <t>Test Result</t>
   </si>
   <si>
@@ -99,26 +94,34 @@
     <t>DRESSES</t>
   </si>
   <si>
-    <t>Pass:d1</t>
-  </si>
-  <si>
-    <t>Pass:d2</t>
+    <t>TS_HP_02_03</t>
+  </si>
+  <si>
+    <t>TS_HP_03_02</t>
+  </si>
+  <si>
+    <t>TS_HP_03_03</t>
+  </si>
+  <si>
+    <t>TS_HP_03_04</t>
+  </si>
+  <si>
+    <t>Summer Dresses</t>
+  </si>
+  <si>
+    <t>SUMMER DRESSES</t>
+  </si>
+  <si>
+    <t>Summer Dresses - My Store</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass:Hpl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,22 +473,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFA70CF-1933-416E-A9F5-A4A7545BE928}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2:B6" r:id="rId1" display="http://automationpractice.com/" xr:uid="{1165F660-8F10-414D-B05A-FBF69EC88938}"/>
+    <hyperlink ref="B3:B4" r:id="rId2" display="http://automationpractice.com/" xr:uid="{A8AEA56A-0DB9-4CF1-9F23-DE2D6A70A3CE}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{E2691630-8F8D-4C46-83D7-E37B3C97AEC7}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{BEEA15DB-EE09-4398-B69B-435F83AD7CFE}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{EBCBF600-E8D0-4130-825A-A26A31DC58F4}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{0482CC4D-973C-470C-A7B1-14A721C7CE06}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{4F3F52A1-E1AA-4D72-BEA6-C8DF905D2F87}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C638BDFF-8D9C-428C-88DE-C46CA0245C4B}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -501,18 +652,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -524,38 +675,35 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -575,30 +723,27 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -610,18 +755,15 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -633,22 +775,61 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2:B7" r:id="rId1" display="http://automationpractice.com/" xr:uid="{1165F660-8F10-414D-B05A-FBF69EC88938}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{E1DB6336-5D6D-4779-BA4A-7138B02144BF}"/>
-    <hyperlink ref="B5:B6" r:id="rId3" display="http://automationpractice.com/" xr:uid="{A8AEA56A-0DB9-4CF1-9F23-DE2D6A70A3CE}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{E2691630-8F8D-4C46-83D7-E37B3C97AEC7}"/>
+    <hyperlink ref="B2:B6" r:id="rId1" display="http://automationpractice.com/" xr:uid="{E771C7D0-E192-4506-AFD8-3E682DB840DC}"/>
+    <hyperlink ref="B3:B4" r:id="rId2" display="http://automationpractice.com/" xr:uid="{634F44D7-99B0-4EB2-9A28-6FE4AD7285A7}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{42C738CE-61DA-4B6A-ADAD-EA6590B14084}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{CA0EB73C-41B0-4B14-AB8C-3E6B68A53B68}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{3DDE0189-F646-46E5-A027-E7EBBE64F86E}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{C3E4B68B-B1E4-4C3E-AE9D-6072891A747B}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{468C5C2F-5AE5-47C4-8256-39900470CFDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
